--- a/app/data.xlsx
+++ b/app/data.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -440,6 +440,28 @@
         <v>muyou</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>罗岚</v>
+      </c>
+      <c r="B7" t="str">
+        <v>00320000</v>
+      </c>
+      <c r="C7" t="str">
+        <v>一间小木屋</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>xxx</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0099999</v>
+      </c>
+      <c r="C8" t="str">
+        <v>nicai</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/app/data.xlsx
+++ b/app/data.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -462,6 +462,17 @@
         <v>nicai</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>xx</v>
+      </c>
+      <c r="B9" t="str">
+        <v>222338</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>